--- a/Input/230621 - validations logs_ek.xlsx
+++ b/Input/230621 - validations logs_ek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/emily_keenan_communities_gov_uk/Documents/Desktop/DAP Transfer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\emily.keenan\Documents\GitHub\ctrebate_recon\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FB560C64-BC1E-4340-8650-3F2D54894A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC937D9-2F46-4409-ABA6-4A00BB616D13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E9FF5-E7B8-42E3-8DA5-D6E803404ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="15105" xr2:uid="{FD9355D7-7526-42B0-B678-14BFCC42B9BC}"/>
   </bookViews>
@@ -1272,9 +1272,6 @@
     <t>Amended to increase ineligible payments (match decrease eligible)</t>
   </si>
   <si>
-    <t>Resolved/unresolved</t>
-  </si>
-  <si>
     <t>E07000223</t>
   </si>
   <si>
@@ -2828,6 +2825,9 @@
   </si>
   <si>
     <t>organisation_id</t>
+  </si>
+  <si>
+    <t>resolved_unresolved</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3462,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3496,15 +3496,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>394</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>806</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>807</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>7</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="4" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>10</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>13</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="6" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>16</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>19</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>25</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>28</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>30</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>33</v>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>818</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>819</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>482</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>483</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>38</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>41</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>46</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>47</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>50</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>418</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>419</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>53</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>54</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>57</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>60</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>64</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>68</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>71</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>74</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>76</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>79</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>82</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>84</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>88</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>90</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>93</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>95</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>97</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>100</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>103</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>105</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>108</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>110</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="41" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>113</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>116</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="43" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>120</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>124</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>434</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>435</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>127</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>129</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>132</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>135</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>137</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>140</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="51" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>143</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="52" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>146</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>149</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>152</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="55" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>155</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>157</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="57" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>160</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>163</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>166</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>169</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="61" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B61" s="34" t="s">
         <v>172</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>175</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>178</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="64" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>180</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="65" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>183</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>186</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B67" s="37" t="s">
         <v>189</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>191</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="69" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>194</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="B70" s="37" t="s">
         <v>779</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>780</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>197</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>199</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>202</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="73" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>189</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>207</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>210</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>535</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>536</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>213</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="77" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>216</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>219</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>222</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>225</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>226</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B82" s="34" t="s">
         <v>229</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>233</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>236</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B85" s="34" t="s">
         <v>240</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>243</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>246</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>249</v>
@@ -5357,7 +5357,7 @@
         <v>391</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>63</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B89" s="34" t="s">
         <v>654</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>655</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>250</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>252</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>255</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>258</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B93" s="30" t="s">
         <v>416</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>417</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>261</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="94" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>263</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>265</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>268</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>270</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>272</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B99" s="39" t="s">
         <v>275</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>277</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>280</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="102" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>282</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>451</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>285</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>287</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>289</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>291</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="B107" s="30" t="s">
         <v>543</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>544</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>293</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>295</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B109" s="32" t="s">
         <v>298</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>300</v>
@@ -5833,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="111" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B111" s="37" t="s">
         <v>28</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="112" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>304</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="113" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>308</v>
@@ -5894,7 +5894,7 @@
         <v>309</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>63</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>90</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>312</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B116" s="37" t="s">
         <v>314</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>317</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>320</v>
@@ -6007,7 +6007,7 @@
         <v>44</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="119" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>323</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="120" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>326</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>329</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>332</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>335</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B124" s="36" t="s">
         <v>337</v>
@@ -6131,7 +6131,7 @@
         <v>338</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>9</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B125" s="37" t="s">
         <v>339</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B126" s="36" t="s">
         <v>329</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>376</v>
@@ -6370,7 +6370,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B2" t="s">
         <v>320</v>
@@ -6386,23 +6386,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" t="s">
         <v>396</v>
-      </c>
-      <c r="B3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
         <v>398</v>
-      </c>
-      <c r="B4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6410,15 +6410,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
         <v>401</v>
-      </c>
-      <c r="B6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>152</v>
@@ -6426,79 +6426,79 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
         <v>404</v>
-      </c>
-      <c r="B8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
         <v>406</v>
-      </c>
-      <c r="B9" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
         <v>408</v>
-      </c>
-      <c r="B10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" t="s">
         <v>410</v>
-      </c>
-      <c r="B12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" t="s">
         <v>412</v>
-      </c>
-      <c r="B13" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" t="s">
         <v>414</v>
-      </c>
-      <c r="B14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
         <v>416</v>
-      </c>
-      <c r="B15" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" t="s">
         <v>418</v>
-      </c>
-      <c r="B16" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>233</v>
@@ -6514,143 +6514,143 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" t="s">
         <v>422</v>
-      </c>
-      <c r="B19" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="s">
         <v>424</v>
-      </c>
-      <c r="B20" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" t="s">
         <v>426</v>
-      </c>
-      <c r="B21" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" t="s">
         <v>428</v>
-      </c>
-      <c r="B22" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" t="s">
         <v>430</v>
-      </c>
-      <c r="B23" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" t="s">
         <v>432</v>
-      </c>
-      <c r="B24" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
         <v>434</v>
-      </c>
-      <c r="B25" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" t="s">
         <v>436</v>
-      </c>
-      <c r="B26" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>437</v>
+      </c>
+      <c r="B27" t="s">
         <v>438</v>
-      </c>
-      <c r="B27" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" t="s">
         <v>440</v>
-      </c>
-      <c r="B28" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B29" t="s">
         <v>442</v>
-      </c>
-      <c r="B29" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" t="s">
         <v>444</v>
-      </c>
-      <c r="B30" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" t="s">
         <v>446</v>
-      </c>
-      <c r="B31" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" t="s">
         <v>448</v>
-      </c>
-      <c r="B32" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" t="s">
         <v>450</v>
-      </c>
-      <c r="B33" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" t="s">
         <v>452</v>
-      </c>
-      <c r="B34" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" t="s">
         <v>454</v>
-      </c>
-      <c r="B35" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -6658,23 +6658,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" t="s">
         <v>457</v>
-      </c>
-      <c r="B37" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>458</v>
+      </c>
+      <c r="B38" t="s">
         <v>459</v>
-      </c>
-      <c r="B38" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B40" t="s">
         <v>308</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B41" t="s">
         <v>189</v>
@@ -6698,15 +6698,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" t="s">
         <v>464</v>
-      </c>
-      <c r="B42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -6722,23 +6722,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>467</v>
+      </c>
+      <c r="B45" t="s">
         <v>468</v>
-      </c>
-      <c r="B45" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>469</v>
+      </c>
+      <c r="B46" t="s">
         <v>470</v>
-      </c>
-      <c r="B46" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B47" t="s">
         <v>268</v>
@@ -6746,23 +6746,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>471</v>
+      </c>
+      <c r="B48" t="s">
         <v>472</v>
-      </c>
-      <c r="B48" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B49" t="s">
         <v>474</v>
-      </c>
-      <c r="B49" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
         <v>255</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
         <v>326</v>
@@ -6778,39 +6778,39 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>477</v>
+      </c>
+      <c r="B52" t="s">
         <v>478</v>
-      </c>
-      <c r="B52" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>479</v>
+      </c>
+      <c r="B53" t="s">
         <v>480</v>
-      </c>
-      <c r="B53" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>481</v>
+      </c>
+      <c r="B54" t="s">
         <v>482</v>
-      </c>
-      <c r="B54" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>483</v>
+      </c>
+      <c r="B55" t="s">
         <v>484</v>
-      </c>
-      <c r="B55" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s">
         <v>226</v>
@@ -6818,31 +6818,31 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B57" t="s">
         <v>487</v>
-      </c>
-      <c r="B57" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>488</v>
+      </c>
+      <c r="B58" t="s">
         <v>489</v>
-      </c>
-      <c r="B58" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" t="s">
         <v>491</v>
-      </c>
-      <c r="B59" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s">
         <v>246</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B61" t="s">
         <v>272</v>
@@ -6858,79 +6858,79 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>493</v>
+      </c>
+      <c r="B62" t="s">
         <v>494</v>
-      </c>
-      <c r="B62" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>495</v>
+      </c>
+      <c r="B63" t="s">
         <v>496</v>
-      </c>
-      <c r="B63" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>497</v>
+      </c>
+      <c r="B64" t="s">
         <v>498</v>
-      </c>
-      <c r="B64" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>499</v>
+      </c>
+      <c r="B66" t="s">
         <v>500</v>
-      </c>
-      <c r="B66" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>501</v>
+      </c>
+      <c r="B67" t="s">
         <v>502</v>
-      </c>
-      <c r="B67" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>503</v>
+      </c>
+      <c r="B68" t="s">
         <v>504</v>
-      </c>
-      <c r="B68" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>505</v>
+      </c>
+      <c r="B69" t="s">
         <v>506</v>
-      </c>
-      <c r="B69" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>507</v>
+      </c>
+      <c r="B70" t="s">
         <v>508</v>
-      </c>
-      <c r="B70" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s">
         <v>105</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
@@ -6946,23 +6946,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>511</v>
+      </c>
+      <c r="B73" t="s">
         <v>512</v>
-      </c>
-      <c r="B73" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>513</v>
+      </c>
+      <c r="B74" t="s">
         <v>514</v>
-      </c>
-      <c r="B74" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s">
         <v>317</v>
@@ -6970,15 +6970,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>516</v>
+      </c>
+      <c r="B76" t="s">
         <v>517</v>
-      </c>
-      <c r="B76" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s">
         <v>116</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
@@ -7002,55 +7002,55 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>521</v>
+      </c>
+      <c r="B80" t="s">
         <v>522</v>
-      </c>
-      <c r="B80" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" t="s">
         <v>524</v>
-      </c>
-      <c r="B81" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>525</v>
+      </c>
+      <c r="B82" t="s">
         <v>526</v>
-      </c>
-      <c r="B82" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>527</v>
+      </c>
+      <c r="B83" t="s">
         <v>528</v>
-      </c>
-      <c r="B83" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84" t="s">
         <v>530</v>
-      </c>
-      <c r="B84" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>531</v>
+      </c>
+      <c r="B85" t="s">
         <v>532</v>
-      </c>
-      <c r="B85" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s">
         <v>137</v>
@@ -7058,15 +7058,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>534</v>
+      </c>
+      <c r="B87" t="s">
         <v>535</v>
-      </c>
-      <c r="B87" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s">
         <v>210</v>
@@ -7074,31 +7074,31 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B89" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>537</v>
+      </c>
+      <c r="B90" t="s">
         <v>538</v>
-      </c>
-      <c r="B90" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>539</v>
+      </c>
+      <c r="B91" t="s">
         <v>540</v>
-      </c>
-      <c r="B91" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s">
         <v>263</v>
@@ -7106,23 +7106,23 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>542</v>
+      </c>
+      <c r="B93" t="s">
         <v>543</v>
-      </c>
-      <c r="B93" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>544</v>
+      </c>
+      <c r="B94" t="s">
         <v>545</v>
-      </c>
-      <c r="B94" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
         <v>277</v>
@@ -7130,31 +7130,31 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>547</v>
+      </c>
+      <c r="B96" t="s">
         <v>548</v>
-      </c>
-      <c r="B96" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>549</v>
+      </c>
+      <c r="B97" t="s">
         <v>550</v>
-      </c>
-      <c r="B97" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>551</v>
+      </c>
+      <c r="B98" t="s">
         <v>552</v>
-      </c>
-      <c r="B98" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
@@ -7162,23 +7162,23 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" t="s">
         <v>555</v>
-      </c>
-      <c r="B100" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101" t="s">
         <v>557</v>
-      </c>
-      <c r="B101" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s">
         <v>249</v>
@@ -7186,31 +7186,31 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>559</v>
+      </c>
+      <c r="B103" t="s">
         <v>560</v>
-      </c>
-      <c r="B103" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B104" t="s">
         <v>562</v>
-      </c>
-      <c r="B104" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>563</v>
+      </c>
+      <c r="B105" t="s">
         <v>564</v>
-      </c>
-      <c r="B105" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s">
         <v>300</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B107" t="s">
         <v>129</v>
@@ -7226,23 +7226,23 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>567</v>
+      </c>
+      <c r="B108" t="s">
         <v>568</v>
-      </c>
-      <c r="B108" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>569</v>
+      </c>
+      <c r="B109" t="s">
         <v>570</v>
-      </c>
-      <c r="B109" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
@@ -7250,31 +7250,31 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B111" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>572</v>
+      </c>
+      <c r="B112" t="s">
         <v>573</v>
-      </c>
-      <c r="B112" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>574</v>
+      </c>
+      <c r="B113" t="s">
         <v>575</v>
-      </c>
-      <c r="B113" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B114" t="s">
         <v>143</v>
@@ -7282,31 +7282,31 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>577</v>
+      </c>
+      <c r="B115" t="s">
         <v>578</v>
-      </c>
-      <c r="B115" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B116" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>579</v>
+      </c>
+      <c r="B117" t="s">
         <v>580</v>
-      </c>
-      <c r="B117" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B118" t="s">
         <v>95</v>
@@ -7314,15 +7314,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>582</v>
+      </c>
+      <c r="B119" t="s">
         <v>583</v>
-      </c>
-      <c r="B119" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B120" t="s">
         <v>84</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B121" t="s">
         <v>82</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B123" t="s">
         <v>216</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B124" t="s">
         <v>240</v>
@@ -7362,15 +7362,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>589</v>
+      </c>
+      <c r="B125" t="s">
         <v>590</v>
-      </c>
-      <c r="B125" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B126" t="s">
         <v>207</v>
@@ -7378,15 +7378,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" t="s">
         <v>593</v>
-      </c>
-      <c r="B127" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s">
         <v>178</v>
@@ -7394,63 +7394,63 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>595</v>
+      </c>
+      <c r="B129" t="s">
         <v>596</v>
-      </c>
-      <c r="B129" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>597</v>
+      </c>
+      <c r="B130" t="s">
         <v>598</v>
-      </c>
-      <c r="B130" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>599</v>
+      </c>
+      <c r="B131" t="s">
         <v>600</v>
-      </c>
-      <c r="B131" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>601</v>
+      </c>
+      <c r="B132" t="s">
         <v>602</v>
-      </c>
-      <c r="B132" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>603</v>
+      </c>
+      <c r="B133" t="s">
         <v>604</v>
-      </c>
-      <c r="B133" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>605</v>
+      </c>
+      <c r="B134" t="s">
         <v>606</v>
-      </c>
-      <c r="B134" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>607</v>
+      </c>
+      <c r="B135" t="s">
         <v>608</v>
-      </c>
-      <c r="B135" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B136" t="s">
         <v>175</v>
@@ -7458,31 +7458,31 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>610</v>
+      </c>
+      <c r="B137" t="s">
         <v>611</v>
-      </c>
-      <c r="B137" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>612</v>
+      </c>
+      <c r="B138" t="s">
         <v>613</v>
-      </c>
-      <c r="B138" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>614</v>
+      </c>
+      <c r="B139" t="s">
         <v>615</v>
-      </c>
-      <c r="B139" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s">
         <v>60</v>
@@ -7490,47 +7490,47 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>617</v>
+      </c>
+      <c r="B141" t="s">
         <v>618</v>
-      </c>
-      <c r="B141" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>619</v>
+      </c>
+      <c r="B142" t="s">
         <v>620</v>
-      </c>
-      <c r="B142" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>621</v>
+      </c>
+      <c r="B143" t="s">
         <v>622</v>
-      </c>
-      <c r="B143" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>623</v>
+      </c>
+      <c r="B144" t="s">
         <v>624</v>
-      </c>
-      <c r="B144" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>625</v>
+      </c>
+      <c r="B145" t="s">
         <v>626</v>
-      </c>
-      <c r="B145" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B146" t="s">
         <v>199</v>
@@ -7538,31 +7538,31 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>628</v>
+      </c>
+      <c r="B147" t="s">
         <v>629</v>
-      </c>
-      <c r="B147" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>630</v>
+      </c>
+      <c r="B148" t="s">
         <v>631</v>
-      </c>
-      <c r="B148" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>632</v>
+      </c>
+      <c r="B149" t="s">
         <v>633</v>
-      </c>
-      <c r="B149" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B150" t="s">
         <v>172</v>
@@ -7570,23 +7570,23 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>635</v>
+      </c>
+      <c r="B151" t="s">
         <v>636</v>
-      </c>
-      <c r="B151" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>637</v>
+      </c>
+      <c r="B152" t="s">
         <v>638</v>
-      </c>
-      <c r="B152" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B153" t="s">
         <v>132</v>
@@ -7594,23 +7594,23 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>640</v>
+      </c>
+      <c r="B154" t="s">
         <v>641</v>
-      </c>
-      <c r="B154" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>642</v>
+      </c>
+      <c r="B155" t="s">
         <v>643</v>
-      </c>
-      <c r="B155" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B156" t="s">
         <v>97</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B157" t="s">
         <v>236</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B158" t="s">
         <v>304</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B159" t="s">
         <v>79</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B160" t="s">
         <v>124</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B161" t="s">
         <v>183</v>
@@ -7658,31 +7658,31 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>649</v>
+      </c>
+      <c r="B162" t="s">
         <v>650</v>
-      </c>
-      <c r="B162" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>651</v>
+      </c>
+      <c r="B163" t="s">
         <v>652</v>
-      </c>
-      <c r="B163" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>653</v>
+      </c>
+      <c r="B164" t="s">
         <v>654</v>
-      </c>
-      <c r="B164" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B165" t="s">
         <v>169</v>
@@ -7690,15 +7690,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>656</v>
+      </c>
+      <c r="B166" t="s">
         <v>657</v>
-      </c>
-      <c r="B166" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B167" t="s">
         <v>155</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B168" t="s">
         <v>329</v>
@@ -7714,47 +7714,47 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>660</v>
+      </c>
+      <c r="B169" t="s">
         <v>661</v>
-      </c>
-      <c r="B169" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>662</v>
+      </c>
+      <c r="B170" t="s">
         <v>663</v>
-      </c>
-      <c r="B170" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>664</v>
+      </c>
+      <c r="B171" t="s">
         <v>665</v>
-      </c>
-      <c r="B171" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>666</v>
+      </c>
+      <c r="B172" t="s">
         <v>667</v>
-      </c>
-      <c r="B172" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>668</v>
+      </c>
+      <c r="B173" t="s">
         <v>669</v>
-      </c>
-      <c r="B173" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B174" t="s">
         <v>312</v>
@@ -7762,15 +7762,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>671</v>
+      </c>
+      <c r="B175" t="s">
         <v>672</v>
-      </c>
-      <c r="B175" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B176" t="s">
         <v>295</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B177" t="s">
         <v>335</v>
@@ -7786,15 +7786,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>675</v>
+      </c>
+      <c r="B178" t="s">
         <v>676</v>
-      </c>
-      <c r="B178" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B179" t="s">
         <v>149</v>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B180" t="s">
         <v>265</v>
@@ -7810,15 +7810,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>679</v>
+      </c>
+      <c r="B181" t="s">
         <v>680</v>
-      </c>
-      <c r="B181" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B182" t="s">
         <v>93</v>
@@ -7826,23 +7826,23 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>682</v>
+      </c>
+      <c r="B183" t="s">
         <v>683</v>
-      </c>
-      <c r="B183" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>684</v>
+      </c>
+      <c r="B184" t="s">
         <v>685</v>
-      </c>
-      <c r="B184" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B185" t="s">
         <v>110</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B186" t="s">
         <v>337</v>
@@ -7858,15 +7858,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>688</v>
+      </c>
+      <c r="B187" t="s">
         <v>689</v>
-      </c>
-      <c r="B187" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -7874,47 +7874,47 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>691</v>
+      </c>
+      <c r="B189" t="s">
         <v>692</v>
-      </c>
-      <c r="B189" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>693</v>
+      </c>
+      <c r="B190" t="s">
         <v>694</v>
-      </c>
-      <c r="B190" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>695</v>
+      </c>
+      <c r="B191" t="s">
         <v>696</v>
-      </c>
-      <c r="B191" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>697</v>
+      </c>
+      <c r="B192" t="s">
         <v>698</v>
-      </c>
-      <c r="B192" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>699</v>
+      </c>
+      <c r="B193" t="s">
         <v>700</v>
-      </c>
-      <c r="B193" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B194" t="s">
         <v>47</v>
@@ -7922,39 +7922,39 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>702</v>
+      </c>
+      <c r="B195" t="s">
         <v>703</v>
-      </c>
-      <c r="B195" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>704</v>
+      </c>
+      <c r="B196" t="s">
         <v>705</v>
-      </c>
-      <c r="B196" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>706</v>
+      </c>
+      <c r="B197" t="s">
         <v>707</v>
-      </c>
-      <c r="B197" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>708</v>
+      </c>
+      <c r="B198" t="s">
         <v>709</v>
-      </c>
-      <c r="B198" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -7962,39 +7962,39 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>711</v>
+      </c>
+      <c r="B200" t="s">
         <v>712</v>
-      </c>
-      <c r="B200" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>713</v>
+      </c>
+      <c r="B201" t="s">
         <v>714</v>
-      </c>
-      <c r="B201" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>715</v>
+      </c>
+      <c r="B202" t="s">
         <v>716</v>
-      </c>
-      <c r="B202" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B203" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B204" t="s">
         <v>76</v>
@@ -8002,31 +8002,31 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>718</v>
+      </c>
+      <c r="B205" t="s">
         <v>719</v>
-      </c>
-      <c r="B205" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>720</v>
+      </c>
+      <c r="B206" t="s">
         <v>721</v>
-      </c>
-      <c r="B206" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>722</v>
+      </c>
+      <c r="B207" t="s">
         <v>723</v>
-      </c>
-      <c r="B207" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B208" t="s">
         <v>103</v>
@@ -8034,63 +8034,63 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>725</v>
+      </c>
+      <c r="B209" t="s">
         <v>726</v>
-      </c>
-      <c r="B209" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>727</v>
+      </c>
+      <c r="B210" t="s">
         <v>728</v>
-      </c>
-      <c r="B210" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>729</v>
+      </c>
+      <c r="B211" t="s">
         <v>730</v>
-      </c>
-      <c r="B211" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>731</v>
+      </c>
+      <c r="B212" t="s">
         <v>732</v>
-      </c>
-      <c r="B212" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>733</v>
+      </c>
+      <c r="B213" t="s">
         <v>734</v>
-      </c>
-      <c r="B213" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B214" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>735</v>
+      </c>
+      <c r="B215" t="s">
         <v>736</v>
-      </c>
-      <c r="B215" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B216" t="s">
         <v>323</v>
@@ -8098,15 +8098,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B217" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B218" t="s">
         <v>113</v>
@@ -8114,15 +8114,15 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>738</v>
+      </c>
+      <c r="B219" t="s">
         <v>739</v>
-      </c>
-      <c r="B219" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B220" t="s">
         <v>30</v>
@@ -8130,23 +8130,23 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>740</v>
+      </c>
+      <c r="B221" t="s">
         <v>741</v>
-      </c>
-      <c r="B221" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>742</v>
+      </c>
+      <c r="B222" t="s">
         <v>743</v>
-      </c>
-      <c r="B222" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B223" t="s">
         <v>314</v>
@@ -8154,39 +8154,39 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>745</v>
+      </c>
+      <c r="B224" t="s">
         <v>746</v>
-      </c>
-      <c r="B224" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>747</v>
+      </c>
+      <c r="B225" t="s">
         <v>748</v>
-      </c>
-      <c r="B225" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B226" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>749</v>
+      </c>
+      <c r="B227" t="s">
         <v>750</v>
-      </c>
-      <c r="B227" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B228" t="s">
         <v>280</v>
@@ -8194,15 +8194,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>752</v>
+      </c>
+      <c r="B229" t="s">
         <v>753</v>
-      </c>
-      <c r="B229" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B230" t="s">
         <v>258</v>
@@ -8210,15 +8210,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>755</v>
+      </c>
+      <c r="B231" t="s">
         <v>756</v>
-      </c>
-      <c r="B231" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B232" t="s">
         <v>376</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B233" t="s">
         <v>298</v>
@@ -8234,31 +8234,31 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>758</v>
+      </c>
+      <c r="B234" t="s">
         <v>759</v>
-      </c>
-      <c r="B234" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>760</v>
+      </c>
+      <c r="B235" t="s">
         <v>761</v>
-      </c>
-      <c r="B235" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>762</v>
+      </c>
+      <c r="B236" t="s">
         <v>763</v>
-      </c>
-      <c r="B236" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B237" t="s">
         <v>289</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B238" t="s">
         <v>135</v>
@@ -8274,15 +8274,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>765</v>
+      </c>
+      <c r="B239" t="s">
         <v>766</v>
-      </c>
-      <c r="B239" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B240" t="s">
         <v>163</v>
@@ -8290,23 +8290,23 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>768</v>
+      </c>
+      <c r="B241" t="s">
         <v>769</v>
-      </c>
-      <c r="B241" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>770</v>
+      </c>
+      <c r="B242" t="s">
         <v>771</v>
-      </c>
-      <c r="B242" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B243" t="s">
         <v>202</v>
@@ -8314,15 +8314,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>773</v>
+      </c>
+      <c r="B244" t="s">
         <v>774</v>
-      </c>
-      <c r="B244" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B245" t="s">
         <v>291</v>
@@ -8330,31 +8330,31 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>776</v>
+      </c>
+      <c r="B246" t="s">
         <v>777</v>
-      </c>
-      <c r="B246" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>778</v>
+      </c>
+      <c r="B247" t="s">
         <v>779</v>
-      </c>
-      <c r="B247" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>780</v>
+      </c>
+      <c r="B248" t="s">
         <v>781</v>
-      </c>
-      <c r="B248" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B249" t="s">
         <v>108</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B250" t="s">
         <v>339</v>
@@ -8370,23 +8370,23 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>784</v>
+      </c>
+      <c r="B251" t="s">
         <v>785</v>
-      </c>
-      <c r="B251" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>786</v>
+      </c>
+      <c r="B252" t="s">
         <v>787</v>
-      </c>
-      <c r="B252" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B253" t="s">
         <v>229</v>
@@ -8394,23 +8394,23 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>789</v>
+      </c>
+      <c r="B254" t="s">
         <v>790</v>
-      </c>
-      <c r="B254" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>791</v>
+      </c>
+      <c r="B255" t="s">
         <v>792</v>
-      </c>
-      <c r="B255" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B256" t="s">
         <v>16</v>
@@ -8418,23 +8418,23 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>794</v>
+      </c>
+      <c r="B257" t="s">
         <v>795</v>
-      </c>
-      <c r="B257" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>796</v>
+      </c>
+      <c r="B258" t="s">
         <v>797</v>
-      </c>
-      <c r="B258" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B259" t="s">
         <v>146</v>
@@ -8442,39 +8442,39 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>799</v>
+      </c>
+      <c r="B260" t="s">
         <v>800</v>
-      </c>
-      <c r="B260" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>801</v>
+      </c>
+      <c r="B261" t="s">
         <v>802</v>
-      </c>
-      <c r="B261" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>803</v>
+      </c>
+      <c r="B262" t="s">
         <v>804</v>
-      </c>
-      <c r="B262" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>805</v>
+      </c>
+      <c r="B263" t="s">
         <v>806</v>
-      </c>
-      <c r="B263" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B264" t="s">
         <v>180</v>
@@ -8482,39 +8482,39 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>808</v>
+      </c>
+      <c r="B265" t="s">
         <v>809</v>
-      </c>
-      <c r="B265" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>810</v>
+      </c>
+      <c r="B266" t="s">
         <v>811</v>
-      </c>
-      <c r="B266" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>812</v>
+      </c>
+      <c r="B267" t="s">
         <v>813</v>
-      </c>
-      <c r="B267" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>814</v>
+      </c>
+      <c r="B268" t="s">
         <v>815</v>
-      </c>
-      <c r="B268" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B269" t="s">
         <v>287</v>
@@ -8522,15 +8522,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>817</v>
+      </c>
+      <c r="B270" t="s">
         <v>818</v>
-      </c>
-      <c r="B270" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B271" t="s">
         <v>64</v>
@@ -8538,47 +8538,47 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>820</v>
+      </c>
+      <c r="B272" t="s">
         <v>821</v>
-      </c>
-      <c r="B272" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>822</v>
+      </c>
+      <c r="B273" t="s">
         <v>823</v>
-      </c>
-      <c r="B273" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>824</v>
+      </c>
+      <c r="B274" t="s">
         <v>825</v>
-      </c>
-      <c r="B274" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>826</v>
+      </c>
+      <c r="B275" t="s">
         <v>827</v>
-      </c>
-      <c r="B275" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>828</v>
+      </c>
+      <c r="B276" t="s">
         <v>829</v>
-      </c>
-      <c r="B276" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B277" t="s">
         <v>88</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B278" t="s">
         <v>157</v>
@@ -8594,39 +8594,39 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>832</v>
+      </c>
+      <c r="B279" t="s">
         <v>833</v>
-      </c>
-      <c r="B279" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>834</v>
+      </c>
+      <c r="B280" t="s">
         <v>835</v>
-      </c>
-      <c r="B280" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>836</v>
+      </c>
+      <c r="B281" t="s">
         <v>837</v>
-      </c>
-      <c r="B281" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>838</v>
+      </c>
+      <c r="B282" t="s">
         <v>839</v>
-      </c>
-      <c r="B282" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B283" t="s">
         <v>140</v>
@@ -8634,15 +8634,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>841</v>
+      </c>
+      <c r="B284" t="s">
         <v>842</v>
-      </c>
-      <c r="B284" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B285" t="s">
         <v>68</v>
@@ -8650,15 +8650,15 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>844</v>
+      </c>
+      <c r="B286" t="s">
         <v>845</v>
-      </c>
-      <c r="B286" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B287" t="s">
         <v>222</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B288" t="s">
         <v>252</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B289" t="s">
         <v>275</v>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B290" t="s">
         <v>282</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B291" t="s">
         <v>90</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B292" t="s">
         <v>270</v>
@@ -8706,23 +8706,23 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>852</v>
+      </c>
+      <c r="B293" t="s">
         <v>853</v>
-      </c>
-      <c r="B293" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>854</v>
+      </c>
+      <c r="B294" t="s">
         <v>855</v>
-      </c>
-      <c r="B294" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B295" t="s">
         <v>191</v>
@@ -8730,23 +8730,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>857</v>
+      </c>
+      <c r="B296" t="s">
         <v>858</v>
-      </c>
-      <c r="B296" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>859</v>
+      </c>
+      <c r="B297" t="s">
         <v>860</v>
-      </c>
-      <c r="B297" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B298" t="s">
         <v>160</v>
@@ -8754,23 +8754,23 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>862</v>
+      </c>
+      <c r="B299" t="s">
         <v>863</v>
-      </c>
-      <c r="B299" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>864</v>
+      </c>
+      <c r="B300" t="s">
         <v>865</v>
-      </c>
-      <c r="B300" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B301" t="s">
         <v>194</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B302" t="s">
         <v>166</v>
@@ -8786,23 +8786,23 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>868</v>
+      </c>
+      <c r="B303" t="s">
         <v>869</v>
-      </c>
-      <c r="B303" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>870</v>
+      </c>
+      <c r="B304" t="s">
         <v>871</v>
-      </c>
-      <c r="B304" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B305" t="s">
         <v>46</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B306" t="s">
         <v>219</v>
@@ -8818,26 +8818,26 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>874</v>
+      </c>
+      <c r="B307" t="s">
         <v>875</v>
-      </c>
-      <c r="B307" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>876</v>
+      </c>
+      <c r="B308" t="s">
         <v>877</v>
-      </c>
-      <c r="B308" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>878</v>
+      </c>
+      <c r="B309" t="s">
         <v>879</v>
-      </c>
-      <c r="B309" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -8846,16 +8846,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52907788-3c74-4840-b653-af3aea5e5f4b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9124,29 +9120,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52907788-3c74-4840-b653-af3aea5e5f4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206BE77F-190B-4246-9979-19BF5A0832E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C33691C-F8B1-4DE7-A18B-6E0D733F6C1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="52907788-3c74-4840-b653-af3aea5e5f4b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49dd332d-6948-448e-8342-709605274695"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9173,9 +9162,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C33691C-F8B1-4DE7-A18B-6E0D733F6C1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206BE77F-190B-4246-9979-19BF5A0832E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="52907788-3c74-4840-b653-af3aea5e5f4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49dd332d-6948-448e-8342-709605274695"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>